--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_336__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_336__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5420,7 +5420,7 @@
                   <c:v>-0.935014009475708</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.971258759498596</c:v>
+                  <c:v>-1.971262574195862</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48.63518524169922</c:v>
@@ -5429,19 +5429,19 @@
                   <c:v>48.59756851196289</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.29398345947266</c:v>
+                  <c:v>47.29397964477539</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-0.2949689030647278</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.064071416854858</c:v>
+                  <c:v>-1.064069509506226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.145263075828552</c:v>
+                  <c:v>-1.145259380340576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.388796925544739</c:v>
+                  <c:v>-1.388793230056763</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-4.500268936157227</c:v>
@@ -5453,10 +5453,10 @@
                   <c:v>49.54875183105469</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.207467317581177</c:v>
+                  <c:v>-1.207463502883911</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.8641179203987122</c:v>
+                  <c:v>-0.8641160726547241</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>46.33040618896484</c:v>
@@ -5471,10 +5471,10 @@
                   <c:v>48.55890655517578</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.425626873970032</c:v>
+                  <c:v>-1.425630569458008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.060251235961914</c:v>
+                  <c:v>-6.060245513916016</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>12.22681903839111</c:v>
@@ -5486,10 +5486,10 @@
                   <c:v>47.44900131225586</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.14038097858429</c:v>
+                  <c:v>-1.140379190444946</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.5050240159034729</c:v>
+                  <c:v>-0.5050277709960938</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.9196648001670837</c:v>
@@ -5507,7 +5507,7 @@
                   <c:v>46.49680709838867</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.299405813217163</c:v>
+                  <c:v>-1.299407601356506</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-0.9943948984146118</c:v>
@@ -5516,7 +5516,7 @@
                   <c:v>29.51467132568359</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.219642519950867</c:v>
+                  <c:v>-1.219638824462891</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-0.8308032155036926</c:v>
@@ -5534,13 +5534,13 @@
                   <c:v>49.78627395629883</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.10880434513092</c:v>
+                  <c:v>-1.108806133270264</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>37.44587707519531</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.9224321842193604</c:v>
+                  <c:v>-0.9224340319633484</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-1.043649911880493</c:v>
@@ -5549,31 +5549,31 @@
                   <c:v>-1.087088704109192</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.4500533640384674</c:v>
+                  <c:v>-0.4500496387481689</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.015295624732971</c:v>
+                  <c:v>-1.015299320220947</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>16.55720901489258</c:v>
+                  <c:v>16.55721092224121</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.8598811030387878</c:v>
+                  <c:v>-0.859877347946167</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48.41362380981445</c:v>
+                  <c:v>48.41361999511719</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>-1.078008890151978</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.8220479488372803</c:v>
+                  <c:v>-0.8220498561859131</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.127105474472046</c:v>
+                  <c:v>-1.127103567123413</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.195553064346313</c:v>
+                  <c:v>-1.195554971694946</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-1.047933340072632</c:v>
@@ -5582,49 +5582,49 @@
                   <c:v>-1.180160999298096</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.3367796540260315</c:v>
+                  <c:v>-0.3367815315723419</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.019909143447876</c:v>
+                  <c:v>-1.019911050796509</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.03147280216217</c:v>
+                  <c:v>-1.031469106674194</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.112602949142456</c:v>
+                  <c:v>-1.11259913444519</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.820483386516571</c:v>
+                  <c:v>-0.820479691028595</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.165026187896729</c:v>
+                  <c:v>-1.165022492408752</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.134395003318787</c:v>
+                  <c:v>-1.134393095970154</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>-0.9585310220718384</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.631972908973694</c:v>
+                  <c:v>1.631974697113037</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>-1.459709882736206</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.12063455581665</c:v>
+                  <c:v>-1.120636463165283</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.8726997375488281</c:v>
+                  <c:v>-0.8727015852928162</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>48.61624908447266</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.102394938468933</c:v>
+                  <c:v>-1.10239315032959</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.7800097465515137</c:v>
+                  <c:v>-0.7800134420394897</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>-0.7520152926445007</c:v>
@@ -5636,7 +5636,7 @@
                   <c:v>-0.9001197814941406</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>48.78482437133789</c:v>
+                  <c:v>48.78483200073242</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>48.38446426391602</c:v>
@@ -5648,19 +5648,19 @@
                   <c:v>-0.5062081813812256</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.178387522697449</c:v>
+                  <c:v>-1.178383827209473</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-1.102463960647583</c:v>
+                  <c:v>-1.102465867996216</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.8552507758140564</c:v>
+                  <c:v>-0.8552470803260803</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.208988904953003</c:v>
+                  <c:v>-1.208985209465027</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.709328651428223</c:v>
+                  <c:v>-1.709330439567566</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-1.115262150764465</c:v>
@@ -5678,10 +5678,10 @@
                   <c:v>-0.6230791211128235</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.204830408096313</c:v>
+                  <c:v>-1.204832315444946</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.147704124450684</c:v>
+                  <c:v>-1.147702217102051</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>-2.155960083007812</c:v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-1.971258759498596</v>
+        <v>-1.971262574195862</v>
       </c>
       <c r="G3">
         <v>72</v>
@@ -6507,7 +6507,7 @@
         <v>45.684</v>
       </c>
       <c r="F6">
-        <v>47.29398345947266</v>
+        <v>47.29397964477539</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.064071416854858</v>
+        <v>-1.064069509506226</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-1.145263075828552</v>
+        <v>-1.145259380340576</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-1.388796925544739</v>
+        <v>-1.388793230056763</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-1.207467317581177</v>
+        <v>-1.207463502883911</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.8641179203987122</v>
+        <v>-0.8641160726547241</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-1.425626873970032</v>
+        <v>-1.425630569458008</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-6.060251235961914</v>
+        <v>-6.060245513916016</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-1.14038097858429</v>
+        <v>-1.140379190444946</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.5050240159034729</v>
+        <v>-0.5050277709960938</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-1.299405813217163</v>
+        <v>-1.299407601356506</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-1.219642519950867</v>
+        <v>-1.219638824462891</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-1.10880434513092</v>
+        <v>-1.108806133270264</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.9224321842193604</v>
+        <v>-0.9224340319633484</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-0.4500533640384674</v>
+        <v>-0.4500496387481689</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-1.015295624732971</v>
+        <v>-1.015299320220947</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>16.55720901489258</v>
+        <v>16.55721092224121</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-0.8598811030387878</v>
+        <v>-0.859877347946167</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>50.0511</v>
       </c>
       <c r="F50">
-        <v>48.41362380981445</v>
+        <v>48.41361999511719</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-0.8220479488372803</v>
+        <v>-0.8220498561859131</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-1.127105474472046</v>
+        <v>-1.127103567123413</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-1.195553064346313</v>
+        <v>-1.195554971694946</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.3367796540260315</v>
+        <v>-0.3367815315723419</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>-1.019909143447876</v>
+        <v>-1.019911050796509</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-1.03147280216217</v>
+        <v>-1.031469106674194</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-1.112602949142456</v>
+        <v>-1.11259913444519</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-0.820483386516571</v>
+        <v>-0.820479691028595</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-1.165026187896729</v>
+        <v>-1.165022492408752</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-1.134395003318787</v>
+        <v>-1.134393095970154</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.631972908973694</v>
+        <v>1.631974697113037</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-1.12063455581665</v>
+        <v>-1.120636463165283</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-0.8726997375488281</v>
+        <v>-0.8727015852928162</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-1.102394938468933</v>
+        <v>-1.10239315032959</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-0.7800097465515137</v>
+        <v>-0.7800134420394897</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>51.39</v>
       </c>
       <c r="F75">
-        <v>48.78482437133789</v>
+        <v>48.78483200073242</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-1.178387522697449</v>
+        <v>-1.178383827209473</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-1.102463960647583</v>
+        <v>-1.102465867996216</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-0.8552507758140564</v>
+        <v>-0.8552470803260803</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>-1.208988904953003</v>
+        <v>-1.208985209465027</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-1.709328651428223</v>
+        <v>-1.709330439567566</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-1.204830408096313</v>
+        <v>-1.204832315444946</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-1.147704124450684</v>
+        <v>-1.147702217102051</v>
       </c>
     </row>
     <row r="91" spans="1:6">
